--- a/va_facility_data_2025-02-20/West Cobb County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Cobb%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Cobb County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Cobb%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0e393ece8d414db2b6b4042e1f8648cf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0aa3144b612e447c9259ee1e4231b87e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcb80edebf6bd493ca372759631aae2df"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc0b6119d89744886a53a77e628e5536e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R16c13c15f22f48fc8c304a42697a69cf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R85777d5f8dd046e7899b249fe581036f"/>
   </x:sheets>
 </x:workbook>
 </file>
